--- a/蔬心兰.xlsx
+++ b/蔬心兰.xlsx
@@ -9,7 +9,9 @@
   <sheets>
     <sheet name="汇总" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'汇总'!$1:$1</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -34,7 +36,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +44,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,995 +427,748 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>序号</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>商品名称</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>杭州市临平区临平第三中学梅堰校区学生食堂-采购配送单</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>杭州市临平区塘栖第三中学教师食堂-采购配送单</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>杭州市临平区树兰实验学校中学学生(肉类)-采购配送单</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>杭州市临平区树兰实验学校中学学生(蔬菜类)-采购配送单</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>杭州市临平区树兰实验学校教师(肉类)-采购配送单</t>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>杭州市临平区临平第三中学梅堰校区学生食堂</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>杭州市临平区塘栖第三中学教师食堂</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>杭州市临平区树兰实验学校中学学生(肉类)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>杭州市临平区树兰实验学校中学学生(蔬菜类)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>杭州市临平区树兰实验学校教师(肉类)</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>9600134</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>特级72度蓝蓝莓(约60个/斤)(斤)</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="n">
+      <c r="B2" s="2" t="inlineStr"/>
+      <c r="C2" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="D2" s="2" t="inlineStr"/>
+      <c r="E2" s="2" t="inlineStr"/>
+      <c r="F2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DX00105</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>鸡蛋面(斤)</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
+      <c r="B3" s="2" t="inlineStr"/>
+      <c r="C3" s="2" t="inlineStr"/>
+      <c r="D3" s="2" t="inlineStr"/>
+      <c r="E3" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="F3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>DX01630</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>袋装五丰牛奶刀切(450g,18只)</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="B4" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="C4" s="2" t="inlineStr"/>
+      <c r="D4" s="2" t="inlineStr"/>
+      <c r="E4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>DX01954</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>拇指年糕(斤)</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="n">
+      <c r="B5" s="2" t="inlineStr"/>
+      <c r="C5" s="2" t="inlineStr"/>
+      <c r="D5" s="2" t="inlineStr"/>
+      <c r="E5" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" s="2" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>DZ00278</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>板装祖名老豆腐(4kg)</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="n">
+      <c r="B6" s="2" t="inlineStr"/>
+      <c r="C6" s="2" t="inlineStr"/>
+      <c r="D6" s="2" t="inlineStr"/>
+      <c r="E6" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="F6" s="2" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>RL00041</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>热鲜猪前排(斤)</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="n">
+      <c r="B7" s="2" t="inlineStr"/>
+      <c r="C7" s="2" t="inlineStr"/>
+      <c r="D7" s="2" t="inlineStr"/>
+      <c r="E7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>RL00046</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>热鲜猪肉带龙骨子排(斤)</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="B8" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="C8" s="2" t="inlineStr"/>
+      <c r="D8" s="2" t="inlineStr"/>
+      <c r="E8" s="2" t="inlineStr"/>
+      <c r="F8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>RL00050</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>热鲜猪肉全精后腿肉(斤)</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
+      <c r="B9" s="2" t="inlineStr"/>
+      <c r="C9" s="2" t="inlineStr"/>
+      <c r="D9" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="E9" s="2" t="inlineStr"/>
+      <c r="F9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>RL00055</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>热鲜猪肉精大排(斤)</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
+      <c r="B10" s="2" t="inlineStr"/>
+      <c r="C10" s="2" t="inlineStr"/>
+      <c r="D10" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="E10" s="2" t="inlineStr"/>
+      <c r="F10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>RL00059</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>热鲜猪肉精猪爪(5寸)(斤)</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="n">
+      <c r="B11" s="2" t="inlineStr"/>
+      <c r="C11" s="2" t="inlineStr"/>
+      <c r="D11" s="2" t="inlineStr"/>
+      <c r="E11" s="2" t="inlineStr"/>
+      <c r="F11" s="2" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>RL00070</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>热鲜猪肉中方五花肉(斤)</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="n">
+      <c r="B12" s="2" t="inlineStr"/>
+      <c r="C12" s="2" t="inlineStr"/>
+      <c r="D12" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="n">
+      <c r="E12" s="2" t="inlineStr"/>
+      <c r="F12" s="2" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>RL00091</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>热鲜猪9:1猪肉末(斤)</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="n">
+      <c r="B13" s="2" t="inlineStr"/>
+      <c r="C13" s="2" t="inlineStr"/>
+      <c r="D13" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="n">
+      <c r="E13" s="2" t="inlineStr"/>
+      <c r="F13" s="2" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>RL00135</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>冷鲜木头鸭(去内脏)(斤) / 冷鲜木头鸭(去内脏)(斤)(洋鸭)</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
+      <c r="B14" s="2" t="inlineStr"/>
+      <c r="C14" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
+      <c r="D14" s="2" t="inlineStr"/>
+      <c r="E14" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="G14" t="inlineStr"/>
+      <c r="F14" s="2" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>RL00179</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t>冷鲜本鸡(去内脏)(斤)</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
+      <c r="B15" s="2" t="inlineStr"/>
+      <c r="C15" s="2" t="inlineStr"/>
+      <c r="D15" s="2" t="inlineStr"/>
+      <c r="E15" s="2" t="n">
         <v>150</v>
       </c>
-      <c r="G15" t="inlineStr"/>
+      <c r="F15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>RL00270</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>鲜牛肉牛腩(斤)</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
+      <c r="B16" s="2" t="inlineStr"/>
+      <c r="C16" s="2" t="inlineStr"/>
+      <c r="D16" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+      <c r="E16" s="2" t="inlineStr"/>
+      <c r="F16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>RL00275</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>牛排(斤)</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="n">
+      <c r="B17" s="2" t="inlineStr"/>
+      <c r="C17" s="2" t="inlineStr"/>
+      <c r="D17" s="2" t="inlineStr"/>
+      <c r="E17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>RL00353</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
+      <c r="A18" s="2" t="inlineStr">
         <is>
           <t>杭味腊肠(斤)</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="n">
+      <c r="B18" s="2" t="inlineStr"/>
+      <c r="C18" s="2" t="inlineStr"/>
+      <c r="D18" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="E18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>RL00905</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
+      <c r="A19" s="2" t="inlineStr">
         <is>
           <t>箱装大成炸翅根(10kg)</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="n">
+      <c r="B19" s="2" t="inlineStr"/>
+      <c r="C19" s="2" t="inlineStr"/>
+      <c r="D19" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+      <c r="E19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>RL01217</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
+      <c r="A20" s="2" t="inlineStr">
         <is>
           <t>箱装大成超厚鸡排(2.25kg*4)</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
+      <c r="B20" s="2" t="inlineStr"/>
+      <c r="C20" s="2" t="inlineStr"/>
+      <c r="D20" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>RL01280</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
+      <c r="A21" s="2" t="inlineStr">
         <is>
           <t>袋装大成奥尔良早餐腿排(1kg)</t>
         </is>
       </c>
-      <c r="C21" t="n">
+      <c r="B21" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+      <c r="C21" s="2" t="inlineStr"/>
+      <c r="D21" s="2" t="inlineStr"/>
+      <c r="E21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>RL01556</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
+      <c r="A22" s="2" t="inlineStr">
         <is>
           <t>箱装大成琵琶腿(小)(10kg,80多个)</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="n">
+      <c r="B22" s="2" t="inlineStr"/>
+      <c r="C22" s="2" t="inlineStr"/>
+      <c r="D22" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+      <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>SC00005</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
+      <c r="A23" s="2" t="inlineStr">
         <is>
           <t>胡萝卜(斤)</t>
         </is>
       </c>
-      <c r="C23" t="n">
+      <c r="B23" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+      <c r="C23" s="2" t="inlineStr"/>
+      <c r="D23" s="2" t="inlineStr"/>
+      <c r="E23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>SC00008</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
+      <c r="A24" s="2" t="inlineStr">
         <is>
           <t>老生姜(斤) / 老生姜(斤)(老姜)</t>
         </is>
       </c>
-      <c r="C24" t="n">
+      <c r="B24" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="n">
+      <c r="C24" s="2" t="inlineStr"/>
+      <c r="D24" s="2" t="inlineStr"/>
+      <c r="E24" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="G24" t="inlineStr"/>
+      <c r="F24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>SC00018</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
+      <c r="A25" s="2" t="inlineStr">
         <is>
           <t>娃娃菜(斤)</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="n">
+      <c r="B25" s="2" t="inlineStr"/>
+      <c r="C25" s="2" t="inlineStr"/>
+      <c r="D25" s="2" t="inlineStr"/>
+      <c r="E25" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="G25" t="inlineStr"/>
+      <c r="F25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>SC00047</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
+      <c r="A26" s="2" t="inlineStr">
         <is>
           <t>青菜(斤)</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="n">
+      <c r="B26" s="2" t="inlineStr"/>
+      <c r="C26" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+      <c r="D26" s="2" t="inlineStr"/>
+      <c r="E26" s="2" t="inlineStr"/>
+      <c r="F26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>SC00052</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
+      <c r="A27" s="2" t="inlineStr">
         <is>
           <t>兰州包心菜(斤)</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="n">
+      <c r="B27" s="2" t="inlineStr"/>
+      <c r="C27" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="n">
+      <c r="D27" s="2" t="inlineStr"/>
+      <c r="E27" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="G27" t="inlineStr"/>
+      <c r="F27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>SC00066</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
+      <c r="A28" s="2" t="inlineStr">
         <is>
           <t>上海青(斤)</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="n">
+      <c r="B28" s="2" t="inlineStr"/>
+      <c r="C28" s="2" t="inlineStr"/>
+      <c r="D28" s="2" t="inlineStr"/>
+      <c r="E28" s="2" t="n">
         <v>220</v>
       </c>
-      <c r="G28" t="inlineStr"/>
+      <c r="F28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>SC00069</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
+      <c r="A29" s="2" t="inlineStr">
         <is>
           <t>小葱(较细)(斤)</t>
         </is>
       </c>
-      <c r="C29" t="n">
+      <c r="B29" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="n">
+      <c r="C29" s="2" t="inlineStr"/>
+      <c r="D29" s="2" t="inlineStr"/>
+      <c r="E29" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="G29" t="inlineStr"/>
+      <c r="F29" s="2" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>SC00070</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
+      <c r="A30" s="2" t="inlineStr">
         <is>
           <t>洋葱(斤)</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="n">
+      <c r="B30" s="2" t="inlineStr"/>
+      <c r="C30" s="2" t="inlineStr"/>
+      <c r="D30" s="2" t="inlineStr"/>
+      <c r="E30" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="G30" t="inlineStr"/>
+      <c r="F30" s="2" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>SC00073</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
+      <c r="A31" s="2" t="inlineStr">
         <is>
           <t>青大蒜(斤)</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="n">
+      <c r="B31" s="2" t="inlineStr"/>
+      <c r="C31" s="2" t="inlineStr"/>
+      <c r="D31" s="2" t="inlineStr"/>
+      <c r="E31" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="G31" t="inlineStr"/>
+      <c r="F31" s="2" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>SC00076</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
+      <c r="A32" s="2" t="inlineStr">
         <is>
           <t>韭菜(斤)</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="n">
+      <c r="B32" s="2" t="inlineStr"/>
+      <c r="C32" s="2" t="inlineStr"/>
+      <c r="D32" s="2" t="inlineStr"/>
+      <c r="E32" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="G32" t="inlineStr"/>
+      <c r="F32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>SC00077</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
+      <c r="A33" s="2" t="inlineStr">
         <is>
           <t>大蒜子(斤)</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="n">
+      <c r="B33" s="2" t="inlineStr"/>
+      <c r="C33" s="2" t="inlineStr"/>
+      <c r="D33" s="2" t="inlineStr"/>
+      <c r="E33" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="G33" t="inlineStr"/>
+      <c r="F33" s="2" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>SC00078</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
+      <c r="A34" s="2" t="inlineStr">
         <is>
           <t>蒜苗(斤)</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="n">
+      <c r="B34" s="2" t="inlineStr"/>
+      <c r="C34" s="2" t="inlineStr"/>
+      <c r="D34" s="2" t="inlineStr"/>
+      <c r="E34" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="G34" t="inlineStr"/>
+      <c r="F34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>SC00091</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
+      <c r="A35" s="2" t="inlineStr">
         <is>
           <t>西红柿(斤)(番茄)</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="n">
+      <c r="B35" s="2" t="inlineStr"/>
+      <c r="C35" s="2" t="inlineStr"/>
+      <c r="D35" s="2" t="inlineStr"/>
+      <c r="E35" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="G35" t="inlineStr"/>
+      <c r="F35" s="2" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>SC00092</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
+      <c r="A36" s="2" t="inlineStr">
         <is>
           <t>茄子(斤)</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="n">
+      <c r="B36" s="2" t="inlineStr"/>
+      <c r="C36" s="2" t="inlineStr"/>
+      <c r="D36" s="2" t="inlineStr"/>
+      <c r="E36" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="G36" t="inlineStr"/>
+      <c r="F36" s="2" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>SC00096</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
+      <c r="A37" s="2" t="inlineStr">
         <is>
           <t>彩椒(斤)</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="n">
+      <c r="B37" s="2" t="inlineStr"/>
+      <c r="C37" s="2" t="inlineStr"/>
+      <c r="D37" s="2" t="inlineStr"/>
+      <c r="E37" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="G37" t="inlineStr"/>
+      <c r="F37" s="2" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>SC00102</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
+      <c r="A38" s="2" t="inlineStr">
         <is>
           <t>冬瓜(斤)</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="n">
+      <c r="B38" s="2" t="inlineStr"/>
+      <c r="C38" s="2" t="inlineStr"/>
+      <c r="D38" s="2" t="inlineStr"/>
+      <c r="E38" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="G38" t="inlineStr"/>
+      <c r="F38" s="2" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>SC00106</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
+      <c r="A39" s="2" t="inlineStr">
         <is>
           <t>老南瓜(斤)</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="n">
+      <c r="B39" s="2" t="inlineStr"/>
+      <c r="C39" s="2" t="inlineStr"/>
+      <c r="D39" s="2" t="inlineStr"/>
+      <c r="E39" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="G39" t="inlineStr"/>
+      <c r="F39" s="2" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>SC00118</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
+      <c r="A40" s="2" t="inlineStr">
         <is>
           <t>日本嫩南瓜(斤)</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="n">
+      <c r="B40" s="2" t="inlineStr"/>
+      <c r="C40" s="2" t="inlineStr"/>
+      <c r="D40" s="2" t="inlineStr"/>
+      <c r="E40" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="G40" t="inlineStr"/>
+      <c r="F40" s="2" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>SC00162</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
+      <c r="A41" s="2" t="inlineStr">
         <is>
           <t>荷兰黄心大土豆(斤)</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="n">
+      <c r="B41" s="2" t="inlineStr"/>
+      <c r="C41" s="2" t="inlineStr"/>
+      <c r="D41" s="2" t="inlineStr"/>
+      <c r="E41" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="G41" t="inlineStr"/>
+      <c r="F41" s="2" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>SC00233</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
+      <c r="A42" s="2" t="inlineStr">
         <is>
           <t>新鲜香菇(斤)</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="n">
+      <c r="B42" s="2" t="inlineStr"/>
+      <c r="C42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
+      <c r="D42" s="2" t="inlineStr"/>
+      <c r="E42" s="2" t="inlineStr"/>
+      <c r="F42" s="2" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>SC00261</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
+      <c r="A43" s="2" t="inlineStr">
         <is>
           <t>去皮板栗肉(斤)</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="n">
+      <c r="B43" s="2" t="inlineStr"/>
+      <c r="C43" s="2" t="inlineStr"/>
+      <c r="D43" s="2" t="inlineStr"/>
+      <c r="E43" s="2" t="inlineStr"/>
+      <c r="F43" s="2" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>SC00370</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
+      <c r="A44" s="2" t="inlineStr">
         <is>
           <t>咸榨菜头(斤)</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="n">
+      <c r="B44" s="2" t="inlineStr"/>
+      <c r="C44" s="2" t="inlineStr"/>
+      <c r="D44" s="2" t="inlineStr"/>
+      <c r="E44" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="G44" t="inlineStr"/>
+      <c r="F44" s="2" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>SC00397</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
+      <c r="A45" s="2" t="inlineStr">
         <is>
           <t>潮州酸菜(斤)</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="n">
+      <c r="B45" s="2" t="inlineStr"/>
+      <c r="C45" s="2" t="inlineStr"/>
+      <c r="D45" s="2" t="inlineStr"/>
+      <c r="E45" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="G45" t="inlineStr"/>
+      <c r="F45" s="2" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>SC00605</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
+      <c r="A46" s="2" t="inlineStr">
         <is>
           <t>毛毛菜(斤)</t>
         </is>
       </c>
-      <c r="C46" t="n">
+      <c r="B46" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
+      <c r="C46" s="2" t="inlineStr"/>
+      <c r="D46" s="2" t="inlineStr"/>
+      <c r="E46" s="2" t="inlineStr"/>
+      <c r="F46" s="2" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>SC00629</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
+      <c r="A47" s="2" t="inlineStr">
         <is>
           <t>松花菜(斤)</t>
         </is>
       </c>
-      <c r="C47" t="n">
+      <c r="B47" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="n">
+      <c r="C47" s="2" t="inlineStr"/>
+      <c r="D47" s="2" t="inlineStr"/>
+      <c r="E47" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="G47" t="inlineStr"/>
+      <c r="F47" s="2" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>SH00001</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
+      <c r="A48" s="2" t="inlineStr">
         <is>
           <t>草鱼(斤)</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="n">
+      <c r="B48" s="2" t="inlineStr"/>
+      <c r="C48" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
+      <c r="D48" s="2" t="inlineStr"/>
+      <c r="E48" s="2" t="inlineStr"/>
+      <c r="F48" s="2" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>SH00003</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
+      <c r="A49" s="2" t="inlineStr">
         <is>
           <t>花鲢(包头鱼)(斤)(包头鱼)</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="n">
+      <c r="B49" s="2" t="inlineStr"/>
+      <c r="C49" s="2" t="inlineStr"/>
+      <c r="D49" s="2" t="inlineStr"/>
+      <c r="E49" s="2" t="inlineStr"/>
+      <c r="F49" s="2" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>SH00030</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
+      <c r="A50" s="2" t="inlineStr">
         <is>
           <t>明虾(大)（约30-40只）(斤)</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="n">
+      <c r="B50" s="2" t="inlineStr"/>
+      <c r="C50" s="2" t="inlineStr"/>
+      <c r="D50" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="n">
+      <c r="E50" s="2" t="inlineStr"/>
+      <c r="F50" s="2" t="n">
         <v>10</v>
       </c>
     </row>

--- a/蔬心兰.xlsx
+++ b/蔬心兰.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>杭州市临平区树兰实验学校教师(肉类)</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>合计</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -483,6 +488,9 @@
       <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="inlineStr"/>
+      <c r="G2" s="2" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -497,6 +505,9 @@
         <v>70</v>
       </c>
       <c r="F3" s="2" t="inlineStr"/>
+      <c r="G3" s="2" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -511,6 +522,9 @@
       <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="inlineStr"/>
       <c r="F4" s="2" t="inlineStr"/>
+      <c r="G4" s="2" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -525,6 +539,9 @@
         <v>20</v>
       </c>
       <c r="F5" s="2" t="inlineStr"/>
+      <c r="G5" s="2" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -539,6 +556,9 @@
         <v>2</v>
       </c>
       <c r="F6" s="2" t="inlineStr"/>
+      <c r="G6" s="2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -553,6 +573,9 @@
       <c r="F7" s="2" t="n">
         <v>10</v>
       </c>
+      <c r="G7" s="2" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -567,6 +590,9 @@
       <c r="D8" s="2" t="inlineStr"/>
       <c r="E8" s="2" t="inlineStr"/>
       <c r="F8" s="2" t="inlineStr"/>
+      <c r="G8" s="2" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -581,6 +607,9 @@
       </c>
       <c r="E9" s="2" t="inlineStr"/>
       <c r="F9" s="2" t="inlineStr"/>
+      <c r="G9" s="2" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -595,6 +624,9 @@
       </c>
       <c r="E10" s="2" t="inlineStr"/>
       <c r="F10" s="2" t="inlineStr"/>
+      <c r="G10" s="2" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -609,6 +641,9 @@
       <c r="F11" s="2" t="n">
         <v>10</v>
       </c>
+      <c r="G11" s="2" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -625,6 +660,9 @@
       <c r="F12" s="2" t="n">
         <v>25</v>
       </c>
+      <c r="G12" s="2" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -641,6 +679,9 @@
       <c r="F13" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="G13" s="2" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
@@ -657,6 +698,9 @@
         <v>90</v>
       </c>
       <c r="F14" s="2" t="inlineStr"/>
+      <c r="G14" s="2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
@@ -671,6 +715,9 @@
         <v>150</v>
       </c>
       <c r="F15" s="2" t="inlineStr"/>
+      <c r="G15" s="2" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
@@ -685,6 +732,9 @@
       </c>
       <c r="E16" s="2" t="inlineStr"/>
       <c r="F16" s="2" t="inlineStr"/>
+      <c r="G16" s="2" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
@@ -699,6 +749,9 @@
       <c r="F17" s="2" t="n">
         <v>15</v>
       </c>
+      <c r="G17" s="2" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
@@ -713,6 +766,9 @@
       </c>
       <c r="E18" s="2" t="inlineStr"/>
       <c r="F18" s="2" t="inlineStr"/>
+      <c r="G18" s="2" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
@@ -727,6 +783,9 @@
       </c>
       <c r="E19" s="2" t="inlineStr"/>
       <c r="F19" s="2" t="inlineStr"/>
+      <c r="G19" s="2" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
@@ -741,6 +800,9 @@
       </c>
       <c r="E20" s="2" t="inlineStr"/>
       <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
@@ -755,6 +817,9 @@
       <c r="D21" s="2" t="inlineStr"/>
       <c r="E21" s="2" t="inlineStr"/>
       <c r="F21" s="2" t="inlineStr"/>
+      <c r="G21" s="2" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
@@ -769,6 +834,9 @@
       </c>
       <c r="E22" s="2" t="inlineStr"/>
       <c r="F22" s="2" t="inlineStr"/>
+      <c r="G22" s="2" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
@@ -783,6 +851,9 @@
       <c r="D23" s="2" t="inlineStr"/>
       <c r="E23" s="2" t="inlineStr"/>
       <c r="F23" s="2" t="inlineStr"/>
+      <c r="G23" s="2" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
@@ -799,6 +870,9 @@
         <v>5</v>
       </c>
       <c r="F24" s="2" t="inlineStr"/>
+      <c r="G24" s="2" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
@@ -813,6 +887,9 @@
         <v>160</v>
       </c>
       <c r="F25" s="2" t="inlineStr"/>
+      <c r="G25" s="2" t="n">
+        <v>160</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
@@ -827,6 +904,9 @@
       <c r="D26" s="2" t="inlineStr"/>
       <c r="E26" s="2" t="inlineStr"/>
       <c r="F26" s="2" t="inlineStr"/>
+      <c r="G26" s="2" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
@@ -843,6 +923,9 @@
         <v>80</v>
       </c>
       <c r="F27" s="2" t="inlineStr"/>
+      <c r="G27" s="2" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
@@ -857,6 +940,9 @@
         <v>220</v>
       </c>
       <c r="F28" s="2" t="inlineStr"/>
+      <c r="G28" s="2" t="n">
+        <v>220</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
@@ -873,6 +959,9 @@
         <v>12</v>
       </c>
       <c r="F29" s="2" t="inlineStr"/>
+      <c r="G29" s="2" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
@@ -887,6 +976,9 @@
         <v>20</v>
       </c>
       <c r="F30" s="2" t="inlineStr"/>
+      <c r="G30" s="2" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
@@ -901,6 +993,9 @@
         <v>5</v>
       </c>
       <c r="F31" s="2" t="inlineStr"/>
+      <c r="G31" s="2" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
@@ -915,6 +1010,9 @@
         <v>5</v>
       </c>
       <c r="F32" s="2" t="inlineStr"/>
+      <c r="G32" s="2" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
@@ -929,6 +1027,9 @@
         <v>5</v>
       </c>
       <c r="F33" s="2" t="inlineStr"/>
+      <c r="G33" s="2" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
@@ -943,6 +1044,9 @@
         <v>20</v>
       </c>
       <c r="F34" s="2" t="inlineStr"/>
+      <c r="G34" s="2" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
@@ -957,6 +1061,9 @@
         <v>120</v>
       </c>
       <c r="F35" s="2" t="inlineStr"/>
+      <c r="G35" s="2" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
@@ -971,6 +1078,9 @@
         <v>50</v>
       </c>
       <c r="F36" s="2" t="inlineStr"/>
+      <c r="G36" s="2" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
@@ -985,6 +1095,9 @@
         <v>30</v>
       </c>
       <c r="F37" s="2" t="inlineStr"/>
+      <c r="G37" s="2" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
@@ -999,6 +1112,9 @@
         <v>100</v>
       </c>
       <c r="F38" s="2" t="inlineStr"/>
+      <c r="G38" s="2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
@@ -1013,6 +1129,9 @@
         <v>15</v>
       </c>
       <c r="F39" s="2" t="inlineStr"/>
+      <c r="G39" s="2" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
@@ -1027,6 +1146,9 @@
         <v>30</v>
       </c>
       <c r="F40" s="2" t="inlineStr"/>
+      <c r="G40" s="2" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
@@ -1041,6 +1163,9 @@
         <v>120</v>
       </c>
       <c r="F41" s="2" t="inlineStr"/>
+      <c r="G41" s="2" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
@@ -1055,6 +1180,9 @@
       <c r="D42" s="2" t="inlineStr"/>
       <c r="E42" s="2" t="inlineStr"/>
       <c r="F42" s="2" t="inlineStr"/>
+      <c r="G42" s="2" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
@@ -1069,6 +1197,9 @@
       <c r="F43" s="2" t="n">
         <v>20</v>
       </c>
+      <c r="G43" s="2" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
@@ -1083,6 +1214,9 @@
         <v>15</v>
       </c>
       <c r="F44" s="2" t="inlineStr"/>
+      <c r="G44" s="2" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
@@ -1097,6 +1231,9 @@
         <v>20</v>
       </c>
       <c r="F45" s="2" t="inlineStr"/>
+      <c r="G45" s="2" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
@@ -1111,6 +1248,9 @@
       <c r="D46" s="2" t="inlineStr"/>
       <c r="E46" s="2" t="inlineStr"/>
       <c r="F46" s="2" t="inlineStr"/>
+      <c r="G46" s="2" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
@@ -1127,6 +1267,9 @@
         <v>60</v>
       </c>
       <c r="F47" s="2" t="inlineStr"/>
+      <c r="G47" s="2" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
@@ -1141,6 +1284,9 @@
       <c r="D48" s="2" t="inlineStr"/>
       <c r="E48" s="2" t="inlineStr"/>
       <c r="F48" s="2" t="inlineStr"/>
+      <c r="G48" s="2" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
@@ -1155,6 +1301,9 @@
       <c r="F49" s="2" t="n">
         <v>30</v>
       </c>
+      <c r="G49" s="2" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
@@ -1171,6 +1320,9 @@
       <c r="F50" s="2" t="n">
         <v>10</v>
       </c>
+      <c r="G50" s="2" t="n">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
